--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USERS\ayaki\Documents\Visual Studio 2022\Projects\RefusalReasonList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F6CCC-CBDB-47DB-B9C5-CB5190B42DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8267A197-BC36-420D-B9F0-E8237F1AEEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2360" windowWidth="17720" windowHeight="17480" xr2:uid="{884CC341-6800-41B6-A139-C2712C3A8C9F}"/>
+    <workbookView xWindow="1890" yWindow="590" windowWidth="19270" windowHeight="20410" xr2:uid="{884CC341-6800-41B6-A139-C2712C3A8C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -426,7 +426,7 @@
     <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,20 +434,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2006106644</v>
       </c>
+      <c r="C2" s="1" t="e">
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2006106646</v>
       </c>
+      <c r="C3" s="1" t="e">
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="e">
         <f>VLOOKUP(1,B4:C4,1,FALSE)</f>
         <v>#N/A</v>
+      </c>
+      <c r="C4" s="1" t="e">
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USERS\ayaki\Documents\Visual Studio 2022\Projects\RefusalReasonList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8267A197-BC36-420D-B9F0-E8237F1AEEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2959AEB1-9E15-4DC1-BAAD-363F67054D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="590" windowWidth="19270" windowHeight="20410" xr2:uid="{884CC341-6800-41B6-A139-C2712C3A8C9F}"/>
+    <workbookView xWindow="2020" yWindow="1170" windowWidth="23690" windowHeight="16830" xr2:uid="{884CC341-6800-41B6-A139-C2712C3A8C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>出願番号</t>
     <rPh sb="0" eb="4">
@@ -45,14 +45,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>条文</t>
+    <t>特許法第２９条第２項</t>
+  </si>
+  <si>
+    <t>特許法第３６条第６項第２号,特許法第２９条第２項</t>
+  </si>
+  <si>
+    <t>特許法第２９条第１項第３号,特許法第２９条第２項</t>
+  </si>
+  <si>
+    <t>特許法第３７条,特許法第２９条第１項第３号,特許法第２９条第２項</t>
+  </si>
+  <si>
+    <t>手続補正書</t>
+  </si>
+  <si>
+    <t>意見書</t>
+  </si>
+  <si>
+    <t>特願2022-212177</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特許査定</t>
+  </si>
+  <si>
+    <t>特願2022-113255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特願2023-056033</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@審査記録1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@審査記録2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@審査記録3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@審査記録4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@審査記録5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@審査記録6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@審査記録7</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +121,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -86,20 +153,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,56 +486,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D47D1-43EE-4B5E-84C1-31ED3B4EE0DF}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.9140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2006106644</v>
       </c>
-      <c r="C2" s="1" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2006106646</v>
       </c>
-      <c r="C3" s="1" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="e">
-        <f>VLOOKUP(1,B4:C4,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="1" t="e">
-        <v>#NAME?</v>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2022113255</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>2023056033</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{81DAF854-C97B-4FE8-A6A4-82837E76875E}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5E1FD3F6-07E5-4196-8579-7C8FD3A095CD}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{B16894B8-3D9A-4E68-8C80-42B82FB91851}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{062AA3AF-C5DC-4193-A41D-899EEF4C9325}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{CC794DD3-3A85-41A0-BC14-701D39216A21}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{3D5E0185-DB34-49A1-817B-23181397B0A4}"/>
+    <hyperlink ref="H2" r:id="rId7" xr:uid="{7E801619-203B-487C-8E16-D3457F5D045D}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{D45FFC65-38CA-435C-816C-299B380A5B8C}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{D94697E7-7D69-4C70-BCCE-14377A265A90}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{BD84BEF7-47A7-45B0-B135-2A5EE5136E29}"/>
+    <hyperlink ref="E3" r:id="rId11" xr:uid="{B8E5D29C-F6EF-4677-A11D-8D3A36044869}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{DFC64506-2CDE-4D8A-908F-7AB5E4192E7A}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{426D227B-0008-429E-B97D-0CE9C364A154}"/>
+    <hyperlink ref="D4" r:id="rId14" xr:uid="{45A89B2F-4244-41B1-9C2D-75F5B8AF68F8}"/>
+    <hyperlink ref="E4" r:id="rId15" xr:uid="{618C8EF7-4321-4E6F-BF41-9F895FECC6E8}"/>
+    <hyperlink ref="B5" r:id="rId16" xr:uid="{B0D9C88E-9379-4CB2-AE50-BB838CF747D6}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{28B365B4-3511-450D-9893-60BD54A378F7}"/>
+    <hyperlink ref="D5" r:id="rId18" xr:uid="{08D70209-E9C1-44AA-8CA0-601B21E17D11}"/>
+    <hyperlink ref="E5" r:id="rId19" xr:uid="{19E54935-4D51-45BB-9559-FB8BC77CFE93}"/>
+    <hyperlink ref="B6" r:id="rId20" xr:uid="{E5EC1AAD-1704-47EF-AB59-8B0A527CEFFC}"/>
+    <hyperlink ref="B7" r:id="rId21" xr:uid="{E53F48BD-6040-4337-8946-4D1018EA06C3}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{78B55ECB-2210-4DEE-A9D3-05CED43BF7E0}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{136193D9-ECA0-4603-B45A-305D7E7DD740}"/>
+    <hyperlink ref="E7" r:id="rId24" xr:uid="{4FB3DE79-DEFB-415D-901E-A67B3AACDB45}"/>
+    <hyperlink ref="B8" r:id="rId25" xr:uid="{3BE665EB-42F6-4382-9BCF-5DF53B03D3F5}"/>
+    <hyperlink ref="C8" r:id="rId26" xr:uid="{0C2ACED7-4F5B-478B-A9E1-3CDCCC7B3434}"/>
+    <hyperlink ref="D8" r:id="rId27" xr:uid="{C1CC6201-F785-43EB-AE7E-834A903DA266}"/>
+    <hyperlink ref="E8" r:id="rId28" xr:uid="{2B248D35-FF68-469A-B394-0073ABC1D2AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USERS\ayaki\Documents\Visual Studio 2022\Projects\RefusalReasonList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2959AEB1-9E15-4DC1-BAAD-363F67054D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812F538F-EF3D-4FFA-BFB7-2233C1295590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="1170" windowWidth="23690" windowHeight="16830" xr2:uid="{884CC341-6800-41B6-A139-C2712C3A8C9F}"/>
   </bookViews>
@@ -531,22 +531,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -557,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -574,13 +574,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -591,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -616,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -633,46 +633,46 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{81DAF854-C97B-4FE8-A6A4-82837E76875E}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5E1FD3F6-07E5-4196-8579-7C8FD3A095CD}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{B16894B8-3D9A-4E68-8C80-42B82FB91851}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{062AA3AF-C5DC-4193-A41D-899EEF4C9325}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{CC794DD3-3A85-41A0-BC14-701D39216A21}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{3D5E0185-DB34-49A1-817B-23181397B0A4}"/>
-    <hyperlink ref="H2" r:id="rId7" xr:uid="{7E801619-203B-487C-8E16-D3457F5D045D}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{D45FFC65-38CA-435C-816C-299B380A5B8C}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{D94697E7-7D69-4C70-BCCE-14377A265A90}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{BD84BEF7-47A7-45B0-B135-2A5EE5136E29}"/>
-    <hyperlink ref="E3" r:id="rId11" xr:uid="{B8E5D29C-F6EF-4677-A11D-8D3A36044869}"/>
-    <hyperlink ref="B4" r:id="rId12" xr:uid="{DFC64506-2CDE-4D8A-908F-7AB5E4192E7A}"/>
-    <hyperlink ref="C4" r:id="rId13" xr:uid="{426D227B-0008-429E-B97D-0CE9C364A154}"/>
-    <hyperlink ref="D4" r:id="rId14" xr:uid="{45A89B2F-4244-41B1-9C2D-75F5B8AF68F8}"/>
-    <hyperlink ref="E4" r:id="rId15" xr:uid="{618C8EF7-4321-4E6F-BF41-9F895FECC6E8}"/>
-    <hyperlink ref="B5" r:id="rId16" xr:uid="{B0D9C88E-9379-4CB2-AE50-BB838CF747D6}"/>
-    <hyperlink ref="C5" r:id="rId17" xr:uid="{28B365B4-3511-450D-9893-60BD54A378F7}"/>
-    <hyperlink ref="D5" r:id="rId18" xr:uid="{08D70209-E9C1-44AA-8CA0-601B21E17D11}"/>
-    <hyperlink ref="E5" r:id="rId19" xr:uid="{19E54935-4D51-45BB-9559-FB8BC77CFE93}"/>
-    <hyperlink ref="B6" r:id="rId20" xr:uid="{E5EC1AAD-1704-47EF-AB59-8B0A527CEFFC}"/>
-    <hyperlink ref="B7" r:id="rId21" xr:uid="{E53F48BD-6040-4337-8946-4D1018EA06C3}"/>
-    <hyperlink ref="C7" r:id="rId22" xr:uid="{78B55ECB-2210-4DEE-A9D3-05CED43BF7E0}"/>
-    <hyperlink ref="D7" r:id="rId23" xr:uid="{136193D9-ECA0-4603-B45A-305D7E7DD740}"/>
-    <hyperlink ref="E7" r:id="rId24" xr:uid="{4FB3DE79-DEFB-415D-901E-A67B3AACDB45}"/>
-    <hyperlink ref="B8" r:id="rId25" xr:uid="{3BE665EB-42F6-4382-9BCF-5DF53B03D3F5}"/>
-    <hyperlink ref="C8" r:id="rId26" xr:uid="{0C2ACED7-4F5B-478B-A9E1-3CDCCC7B3434}"/>
-    <hyperlink ref="D8" r:id="rId27" xr:uid="{C1CC6201-F785-43EB-AE7E-834A903DA266}"/>
-    <hyperlink ref="E8" r:id="rId28" xr:uid="{2B248D35-FF68-469A-B394-0073ABC1D2AD}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4280618F-30C3-40B1-A544-39285FAEA163}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{CA434435-FD92-49E2-9334-0E4DF82C28F1}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{6186845D-1A5B-48FC-A659-BAF90C75E6AD}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{3A06F4CA-6CC1-48EE-A229-6387BCDD4FE5}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{5D485BA9-B0DA-4091-B513-07672F3BA76E}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{72ACB248-72E2-4C32-BD71-7BF0CCEB8D4D}"/>
+    <hyperlink ref="H2" r:id="rId7" xr:uid="{61DC634F-3AF9-41A3-B1E2-9003E257ED73}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{325FE8C2-1B30-4FDF-97FD-39B07FDB84AF}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{E80012EF-2529-4769-AF05-6205F5F5147F}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{C20A7BF7-3E1B-4BDA-ADD4-76A1CDC307D2}"/>
+    <hyperlink ref="E3" r:id="rId11" xr:uid="{1A39150A-8F77-4AEA-96FB-244BD8BC2306}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{E6B76594-0AAE-4E31-A68C-D9EA47E4AFD1}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{B033BDA0-62DA-4A32-A2B3-9E057EC6648F}"/>
+    <hyperlink ref="D4" r:id="rId14" xr:uid="{BD5F7039-E69D-4FD0-B588-901CD9CA4B3F}"/>
+    <hyperlink ref="E4" r:id="rId15" xr:uid="{62D29027-13D4-4157-BB15-B448F0C7553C}"/>
+    <hyperlink ref="B5" r:id="rId16" xr:uid="{D28A5080-F96B-4BA0-BCD6-18A80ACCEF10}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{6AEBC6BD-CE4E-4AB0-9B6E-AEA407461BC1}"/>
+    <hyperlink ref="D5" r:id="rId18" xr:uid="{770F1906-66E6-4600-A1CE-1BFA3596F5F3}"/>
+    <hyperlink ref="E5" r:id="rId19" xr:uid="{1CC33B70-D8BE-4D2C-BE7B-2A34C5AA1C39}"/>
+    <hyperlink ref="B6" r:id="rId20" xr:uid="{6545E850-7FE0-4684-B04E-E276DDEC366F}"/>
+    <hyperlink ref="B7" r:id="rId21" xr:uid="{8F45A340-C45B-423E-9600-251D96899176}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{64A47F0A-43BD-4804-BA27-D302793842FF}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{A479CD58-82F3-440E-B594-7058C3704905}"/>
+    <hyperlink ref="E7" r:id="rId24" xr:uid="{A003413F-22DA-4F18-ADB5-D8C2A5C92D4C}"/>
+    <hyperlink ref="B8" r:id="rId25" xr:uid="{5B4169A1-388D-491B-91B3-C53829354680}"/>
+    <hyperlink ref="C8" r:id="rId26" xr:uid="{9CA4ABD8-B6F7-4794-8050-F505EFAC9737}"/>
+    <hyperlink ref="D8" r:id="rId27" xr:uid="{2D5F0AA5-B5BB-4B28-B600-82736BA1DFF7}"/>
+    <hyperlink ref="E8" r:id="rId28" xr:uid="{E67DC651-104E-411C-898A-19A08E910C8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId29"/>
